--- a/TEMP/database.xlsx
+++ b/TEMP/database.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tkminek_local\PYTHON\XML_FILE\XML_app\TEMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\PROJECTS\XML_app\XML_app\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BCB097-C2DF-4CCF-8D4F-8360910A791E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23115" windowHeight="8655"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1134">
   <si>
     <t>UsrOrder</t>
   </si>
@@ -3415,12 +3416,18 @@
   </si>
   <si>
     <t>67602</t>
+  </si>
+  <si>
+    <t>Litoměřice 1</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;Kč&quot;;\-#,##0.00\ &quot;Kč&quot;"/>
   </numFmts>
@@ -3468,7 +3475,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3484,7 +3491,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3559,6 +3566,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3594,6 +3618,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3769,20 +3810,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DE194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="48" max="50" width="9.140625" style="1"/>
-    <col min="69" max="69" width="9.140625" style="2"/>
-    <col min="75" max="76" width="9.140625" style="2"/>
-    <col min="98" max="103" width="9.140625" style="2"/>
+    <col min="48" max="50" width="9.109375" style="1"/>
+    <col min="69" max="69" width="9.109375" style="2"/>
+    <col min="75" max="76" width="9.109375" style="2"/>
+    <col min="98" max="103" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4111,7 +4154,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B2" t="b">
         <v>0</v>
       </c>
@@ -4209,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B3" t="b">
         <v>0</v>
       </c>
@@ -4289,7 +4332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B4" t="b">
         <v>0</v>
       </c>
@@ -4369,7 +4412,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B5" t="b">
         <v>0</v>
       </c>
@@ -4449,7 +4492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B6" t="b">
         <v>0</v>
       </c>
@@ -4529,7 +4572,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B7" t="b">
         <v>0</v>
       </c>
@@ -4609,7 +4652,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B8" t="b">
         <v>0</v>
       </c>
@@ -4689,7 +4732,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B9" t="b">
         <v>0</v>
       </c>
@@ -4766,7 +4809,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B10" t="b">
         <v>0</v>
       </c>
@@ -4846,7 +4889,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B11" t="b">
         <v>0</v>
       </c>
@@ -4926,7 +4969,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B12" t="b">
         <v>0</v>
       </c>
@@ -5006,7 +5049,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B13" t="b">
         <v>0</v>
       </c>
@@ -5086,7 +5129,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B14" t="b">
         <v>0</v>
       </c>
@@ -5166,7 +5209,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B15" t="b">
         <v>0</v>
       </c>
@@ -5246,7 +5289,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B16" t="b">
         <v>0</v>
       </c>
@@ -5326,7 +5369,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B17" t="b">
         <v>0</v>
       </c>
@@ -5406,7 +5449,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B18" t="b">
         <v>0</v>
       </c>
@@ -5486,7 +5529,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B19" t="b">
         <v>0</v>
       </c>
@@ -5566,7 +5609,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B20" t="b">
         <v>0</v>
       </c>
@@ -5634,7 +5677,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B21" t="b">
         <v>0</v>
       </c>
@@ -5714,7 +5757,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B22" t="b">
         <v>0</v>
       </c>
@@ -5782,7 +5825,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B23" t="b">
         <v>0</v>
       </c>
@@ -5850,7 +5893,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B24" t="b">
         <v>0</v>
       </c>
@@ -5918,7 +5961,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B25" t="b">
         <v>0</v>
       </c>
@@ -5998,7 +6041,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B26" t="b">
         <v>0</v>
       </c>
@@ -6078,7 +6121,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B27" t="b">
         <v>0</v>
       </c>
@@ -6158,7 +6201,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B28" t="b">
         <v>0</v>
       </c>
@@ -6238,7 +6281,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B29" t="b">
         <v>0</v>
       </c>
@@ -6318,7 +6361,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B30" t="b">
         <v>0</v>
       </c>
@@ -6398,7 +6441,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B31" t="b">
         <v>0</v>
       </c>
@@ -6478,7 +6521,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B32" t="b">
         <v>0</v>
       </c>
@@ -6558,7 +6601,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B33" t="b">
         <v>0</v>
       </c>
@@ -6638,7 +6681,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B34" t="b">
         <v>0</v>
       </c>
@@ -6718,7 +6761,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B35" t="b">
         <v>0</v>
       </c>
@@ -6798,7 +6841,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B36" t="b">
         <v>0</v>
       </c>
@@ -6878,7 +6921,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B37" t="b">
         <v>0</v>
       </c>
@@ -6958,7 +7001,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B38" t="b">
         <v>0</v>
       </c>
@@ -7032,7 +7075,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B39" t="b">
         <v>0</v>
       </c>
@@ -7106,7 +7149,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B40" t="b">
         <v>0</v>
       </c>
@@ -7189,7 +7232,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B41" t="b">
         <v>0</v>
       </c>
@@ -7272,7 +7315,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B42" t="b">
         <v>0</v>
       </c>
@@ -7352,7 +7395,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B43" t="b">
         <v>0</v>
       </c>
@@ -7426,7 +7469,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B44" t="b">
         <v>0</v>
       </c>
@@ -7500,7 +7543,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B45" t="b">
         <v>0</v>
       </c>
@@ -7580,7 +7623,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B46" t="b">
         <v>0</v>
       </c>
@@ -7660,7 +7703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B47" t="b">
         <v>0</v>
       </c>
@@ -7746,7 +7789,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B48" t="b">
         <v>0</v>
       </c>
@@ -7832,7 +7875,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B49" t="b">
         <v>0</v>
       </c>
@@ -7918,7 +7961,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B50" t="b">
         <v>0</v>
       </c>
@@ -8001,7 +8044,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B51" t="b">
         <v>0</v>
       </c>
@@ -8081,7 +8124,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B52" t="b">
         <v>0</v>
       </c>
@@ -8167,7 +8210,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B53" t="b">
         <v>0</v>
       </c>
@@ -8235,7 +8278,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B54" t="b">
         <v>0</v>
       </c>
@@ -8318,7 +8361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B55" t="b">
         <v>0</v>
       </c>
@@ -8392,7 +8435,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B56" t="b">
         <v>0</v>
       </c>
@@ -8472,7 +8515,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B57" t="b">
         <v>0</v>
       </c>
@@ -8552,7 +8595,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B58" t="b">
         <v>0</v>
       </c>
@@ -8626,7 +8669,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B59" t="b">
         <v>0</v>
       </c>
@@ -8706,7 +8749,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B60" t="b">
         <v>0</v>
       </c>
@@ -8792,7 +8835,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B61" t="b">
         <v>0</v>
       </c>
@@ -8860,7 +8903,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B62" t="b">
         <v>0</v>
       </c>
@@ -8934,7 +8977,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B63" t="b">
         <v>0</v>
       </c>
@@ -9008,7 +9051,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B64" t="b">
         <v>0</v>
       </c>
@@ -9082,7 +9125,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B65" t="b">
         <v>0</v>
       </c>
@@ -9156,7 +9199,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B66" t="b">
         <v>0</v>
       </c>
@@ -9230,7 +9273,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B67" t="b">
         <v>0</v>
       </c>
@@ -9304,7 +9347,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B68" t="b">
         <v>0</v>
       </c>
@@ -9387,7 +9430,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B69" t="b">
         <v>0</v>
       </c>
@@ -9470,7 +9513,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B70" t="b">
         <v>0</v>
       </c>
@@ -9553,7 +9596,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B71" t="b">
         <v>0</v>
       </c>
@@ -9636,7 +9679,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B72" t="b">
         <v>0</v>
       </c>
@@ -9707,7 +9750,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B73" t="b">
         <v>0</v>
       </c>
@@ -9787,7 +9830,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B74" t="b">
         <v>0</v>
       </c>
@@ -9867,7 +9910,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B75" t="b">
         <v>0</v>
       </c>
@@ -9941,7 +9984,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B76" t="b">
         <v>0</v>
       </c>
@@ -10039,7 +10082,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B77" t="b">
         <v>0</v>
       </c>
@@ -10119,7 +10162,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B78" t="b">
         <v>0</v>
       </c>
@@ -10199,7 +10242,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B79" t="b">
         <v>0</v>
       </c>
@@ -10279,7 +10322,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B80" t="b">
         <v>0</v>
       </c>
@@ -10359,7 +10402,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B81" t="b">
         <v>0</v>
       </c>
@@ -10439,7 +10482,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B82" t="b">
         <v>0</v>
       </c>
@@ -10513,7 +10556,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B83" t="b">
         <v>0</v>
       </c>
@@ -10593,7 +10636,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B84" t="b">
         <v>0</v>
       </c>
@@ -10673,7 +10716,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B85" t="b">
         <v>0</v>
       </c>
@@ -10753,7 +10796,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B86" t="b">
         <v>0</v>
       </c>
@@ -10833,7 +10876,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B87" t="b">
         <v>0</v>
       </c>
@@ -10913,7 +10956,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B88" t="b">
         <v>0</v>
       </c>
@@ -10993,7 +11036,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B89" t="b">
         <v>0</v>
       </c>
@@ -11073,7 +11116,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B90" t="b">
         <v>0</v>
       </c>
@@ -11153,7 +11196,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B91" t="b">
         <v>0</v>
       </c>
@@ -11233,7 +11276,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B92" t="b">
         <v>0</v>
       </c>
@@ -11313,7 +11356,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B93" t="b">
         <v>0</v>
       </c>
@@ -11393,7 +11436,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B94" t="b">
         <v>0</v>
       </c>
@@ -11473,7 +11516,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B95" t="b">
         <v>0</v>
       </c>
@@ -11553,7 +11596,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B96" t="b">
         <v>0</v>
       </c>
@@ -11633,7 +11676,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B97" t="b">
         <v>0</v>
       </c>
@@ -11713,7 +11756,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B98" t="b">
         <v>0</v>
       </c>
@@ -11793,7 +11836,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B99" t="b">
         <v>0</v>
       </c>
@@ -11873,7 +11916,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B100" t="b">
         <v>0</v>
       </c>
@@ -11959,7 +12002,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B101" t="b">
         <v>0</v>
       </c>
@@ -12039,7 +12082,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B102" t="b">
         <v>0</v>
       </c>
@@ -12119,7 +12162,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B103" t="b">
         <v>0</v>
       </c>
@@ -12205,7 +12248,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B104" t="b">
         <v>0</v>
       </c>
@@ -12288,7 +12331,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B105" t="b">
         <v>0</v>
       </c>
@@ -12368,7 +12411,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B106" t="b">
         <v>0</v>
       </c>
@@ -12448,7 +12491,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B107" t="b">
         <v>0</v>
       </c>
@@ -12522,7 +12565,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B108" t="b">
         <v>0</v>
       </c>
@@ -12596,7 +12639,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B109" t="b">
         <v>0</v>
       </c>
@@ -12676,7 +12719,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B110" t="b">
         <v>0</v>
       </c>
@@ -12759,7 +12802,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B111" t="b">
         <v>0</v>
       </c>
@@ -12839,7 +12882,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B112" t="b">
         <v>0</v>
       </c>
@@ -12913,7 +12956,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B113" t="b">
         <v>0</v>
       </c>
@@ -12987,7 +13030,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B114" t="b">
         <v>0</v>
       </c>
@@ -13070,7 +13113,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B115" t="b">
         <v>0</v>
       </c>
@@ -13150,7 +13193,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="116" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B116" t="b">
         <v>0</v>
       </c>
@@ -13224,7 +13267,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B117" t="b">
         <v>0</v>
       </c>
@@ -13304,7 +13347,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B118" t="b">
         <v>0</v>
       </c>
@@ -13384,7 +13427,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B119" t="b">
         <v>0</v>
       </c>
@@ -13458,7 +13501,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B120" t="b">
         <v>0</v>
       </c>
@@ -13532,7 +13575,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B121" t="b">
         <v>0</v>
       </c>
@@ -13612,7 +13655,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B122" t="b">
         <v>0</v>
       </c>
@@ -13689,7 +13732,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="123" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B123" t="b">
         <v>0</v>
       </c>
@@ -13769,7 +13812,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B124" t="b">
         <v>0</v>
       </c>
@@ -13861,7 +13904,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B125" t="b">
         <v>0</v>
       </c>
@@ -13947,7 +13990,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="126" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B126" t="b">
         <v>0</v>
       </c>
@@ -14039,7 +14082,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B127" t="b">
         <v>0</v>
       </c>
@@ -14119,7 +14162,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B128" t="b">
         <v>0</v>
       </c>
@@ -14205,7 +14248,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B129" t="b">
         <v>0</v>
       </c>
@@ -14285,7 +14328,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B130" t="b">
         <v>0</v>
       </c>
@@ -14365,7 +14408,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B131" t="b">
         <v>0</v>
       </c>
@@ -14445,7 +14488,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B132" t="b">
         <v>0</v>
       </c>
@@ -14525,7 +14568,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B133" t="b">
         <v>0</v>
       </c>
@@ -14605,7 +14648,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B134" t="b">
         <v>0</v>
       </c>
@@ -14685,7 +14728,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B135" t="b">
         <v>0</v>
       </c>
@@ -14765,7 +14808,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="136" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B136" t="b">
         <v>0</v>
       </c>
@@ -14833,7 +14876,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="137" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B137" t="b">
         <v>0</v>
       </c>
@@ -14919,7 +14962,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B138" t="b">
         <v>0</v>
       </c>
@@ -15002,7 +15045,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="139" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B139" t="b">
         <v>0</v>
       </c>
@@ -15076,7 +15119,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B140" t="b">
         <v>0</v>
       </c>
@@ -15144,7 +15187,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B141" t="b">
         <v>0</v>
       </c>
@@ -15224,7 +15267,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B142" t="b">
         <v>0</v>
       </c>
@@ -15304,7 +15347,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="143" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B143" t="b">
         <v>0</v>
       </c>
@@ -15384,7 +15427,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B144" t="b">
         <v>0</v>
       </c>
@@ -15464,7 +15507,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="145" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B145" t="b">
         <v>0</v>
       </c>
@@ -15544,7 +15587,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="146" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B146" t="b">
         <v>0</v>
       </c>
@@ -15624,7 +15667,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="147" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B147" t="b">
         <v>0</v>
       </c>
@@ -15704,7 +15747,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="148" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B148" t="b">
         <v>0</v>
       </c>
@@ -15778,7 +15821,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B149" t="b">
         <v>0</v>
       </c>
@@ -15858,7 +15901,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="150" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B150" t="b">
         <v>0</v>
       </c>
@@ -15938,7 +15981,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="151" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B151" t="b">
         <v>0</v>
       </c>
@@ -16024,7 +16067,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="152" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B152" t="b">
         <v>0</v>
       </c>
@@ -16104,7 +16147,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="153" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B153" t="b">
         <v>0</v>
       </c>
@@ -16184,7 +16227,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="154" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B154" t="b">
         <v>0</v>
       </c>
@@ -16264,7 +16307,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B155" t="b">
         <v>0</v>
       </c>
@@ -16344,7 +16387,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="156" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B156" t="b">
         <v>0</v>
       </c>
@@ -16424,7 +16467,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B157" t="b">
         <v>0</v>
       </c>
@@ -16504,7 +16547,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B158" t="b">
         <v>0</v>
       </c>
@@ -16584,7 +16627,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B159" t="b">
         <v>0</v>
       </c>
@@ -16664,7 +16707,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B160" t="b">
         <v>0</v>
       </c>
@@ -16744,7 +16787,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B161" t="b">
         <v>0</v>
       </c>
@@ -16827,7 +16870,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="162" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B162" t="b">
         <v>0</v>
       </c>
@@ -16913,7 +16956,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B163" t="b">
         <v>0</v>
       </c>
@@ -16993,7 +17036,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B164" t="b">
         <v>0</v>
       </c>
@@ -17067,7 +17110,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="165" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B165" t="b">
         <v>0</v>
       </c>
@@ -17150,7 +17193,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B166" t="b">
         <v>0</v>
       </c>
@@ -17233,7 +17276,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B167" t="b">
         <v>0</v>
       </c>
@@ -17319,7 +17362,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B168" t="b">
         <v>0</v>
       </c>
@@ -17402,7 +17445,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B169" t="b">
         <v>0</v>
       </c>
@@ -17488,7 +17531,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="170" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B170" t="b">
         <v>0</v>
       </c>
@@ -17568,7 +17611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B171" t="b">
         <v>0</v>
       </c>
@@ -17651,7 +17694,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="172" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B172" t="b">
         <v>0</v>
       </c>
@@ -17734,7 +17777,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="173" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B173" t="b">
         <v>0</v>
       </c>
@@ -17802,7 +17845,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="174" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B174" t="b">
         <v>0</v>
       </c>
@@ -17870,7 +17913,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="175" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B175" t="b">
         <v>0</v>
       </c>
@@ -17950,7 +17993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="176" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B176" t="b">
         <v>0</v>
       </c>
@@ -18033,7 +18076,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="177" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B177" t="b">
         <v>0</v>
       </c>
@@ -18116,7 +18159,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="178" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B178" t="b">
         <v>0</v>
       </c>
@@ -18199,7 +18242,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="179" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B179" t="b">
         <v>0</v>
       </c>
@@ -18282,7 +18325,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="180" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B180" t="b">
         <v>0</v>
       </c>
@@ -18365,7 +18408,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B181" t="b">
         <v>0</v>
       </c>
@@ -18439,7 +18482,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="182" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B182" t="b">
         <v>0</v>
       </c>
@@ -18525,7 +18568,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="183" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B183" t="b">
         <v>0</v>
       </c>
@@ -18611,7 +18654,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="184" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B184" t="b">
         <v>0</v>
       </c>
@@ -18694,7 +18737,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="185" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B185" t="b">
         <v>0</v>
       </c>
@@ -18774,7 +18817,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="186" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B186" t="b">
         <v>0</v>
       </c>
@@ -18848,7 +18891,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="187" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B187" t="b">
         <v>0</v>
       </c>
@@ -18916,7 +18959,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="188" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B188" t="b">
         <v>0</v>
       </c>
@@ -18996,7 +19039,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B189" t="b">
         <v>0</v>
       </c>
@@ -19067,7 +19110,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="190" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B190" t="b">
         <v>0</v>
       </c>
@@ -19141,7 +19184,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="191" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B191" t="b">
         <v>0</v>
       </c>
@@ -19212,7 +19255,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="192" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B192" t="b">
         <v>0</v>
       </c>
@@ -19298,7 +19341,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="193" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:107" x14ac:dyDescent="0.3">
       <c r="B193" t="b">
         <v>0</v>
       </c>
@@ -19369,6 +19412,77 @@
         <v>1115</v>
       </c>
       <c r="DC193" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="194" spans="2:107" x14ac:dyDescent="0.3">
+      <c r="B194" t="b">
+        <v>0</v>
+      </c>
+      <c r="H194" t="s">
+        <v>247</v>
+      </c>
+      <c r="K194" t="s">
+        <v>248</v>
+      </c>
+      <c r="L194" t="s">
+        <v>249</v>
+      </c>
+      <c r="M194" t="s">
+        <v>1132</v>
+      </c>
+      <c r="P194" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>1133</v>
+      </c>
+      <c r="V194" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>1132</v>
+      </c>
+      <c r="BA194" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB194" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC194" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD194" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE194" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF194" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG194" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW194" s="2">
+        <v>44452.444803240738</v>
+      </c>
+      <c r="BX194" s="2">
+        <v>44452.4453125</v>
+      </c>
+      <c r="CZ194" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB194" t="s">
+        <v>1115</v>
+      </c>
+      <c r="DC194" t="s">
         <v>1115</v>
       </c>
     </row>
